--- a/Planilhas de análise/Controle.xlsx
+++ b/Planilhas de análise/Controle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="881" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="881"/>
   </bookViews>
   <sheets>
     <sheet name="Controle" sheetId="1" r:id="rId1"/>
@@ -48,7 +48,6 @@
     <definedName name="propano_exp_1" localSheetId="2">Propano!$E$4:$F$37</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36231,43 +36230,43 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp_1" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near_1" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp_1" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near_1" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp_1" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp_1" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36275,7 +36274,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp_1" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36303,7 +36302,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp_1" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36571,8 +36570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37654,7 +37653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:V55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G34" workbookViewId="0">
+    <sheetView topLeftCell="G34" workbookViewId="0">
       <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>

--- a/Planilhas de análise/Controle.xlsx
+++ b/Planilhas de análise/Controle.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="881"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="881" firstSheet="1" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Controle" sheetId="1" r:id="rId1"/>
@@ -24,22 +24,32 @@
     <sheet name="Plan2" sheetId="10" r:id="rId10"/>
     <sheet name="Estimador" sheetId="12" r:id="rId11"/>
     <sheet name="Metanol (2)" sheetId="13" r:id="rId12"/>
+    <sheet name="Butanol" sheetId="14" r:id="rId13"/>
+    <sheet name="Etanol" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="metano_exp" localSheetId="1">Metano!$A$3:$B$21</definedName>
     <definedName name="metano_exp_1" localSheetId="1">Metano!$A$4:$B$22</definedName>
+    <definedName name="octane_exp3_near" localSheetId="12">Butanol!$A$47:$B$52</definedName>
+    <definedName name="octane_exp3_near" localSheetId="13">Etanol!$A$47:$B$52</definedName>
     <definedName name="octane_exp3_near" localSheetId="6">Metanol!$A$47:$B$52</definedName>
     <definedName name="octane_exp3_near" localSheetId="11">'Metanol (2)'!$A$47:$B$52</definedName>
     <definedName name="octane_exp3_near" localSheetId="3">Octano!$A$38:$B$43</definedName>
     <definedName name="octane_exp3_near" localSheetId="8">'Octano (2)'!$A$38:$B$43</definedName>
+    <definedName name="octane_exp3_near_1" localSheetId="12">Butanol!$A$46:$B$51</definedName>
+    <definedName name="octane_exp3_near_1" localSheetId="13">Etanol!$A$46:$B$51</definedName>
     <definedName name="octane_exp3_near_1" localSheetId="6">Metanol!$A$46:$B$51</definedName>
     <definedName name="octane_exp3_near_1" localSheetId="11">'Metanol (2)'!$A$46:$B$51</definedName>
     <definedName name="octane_exp3_near_1" localSheetId="3">Octano!$A$37:$B$42</definedName>
     <definedName name="octane_exp3_near_1" localSheetId="8">'Octano (2)'!$A$37:$B$42</definedName>
+    <definedName name="octano_exp" localSheetId="12">Butanol!$A$3:$B$36</definedName>
+    <definedName name="octano_exp" localSheetId="13">Etanol!$A$3:$B$36</definedName>
     <definedName name="octano_exp" localSheetId="6">Metanol!$A$3:$B$36</definedName>
     <definedName name="octano_exp" localSheetId="11">'Metanol (2)'!$A$3:$B$36</definedName>
     <definedName name="octano_exp" localSheetId="3">Octano!$A$3:$B$36</definedName>
     <definedName name="octano_exp" localSheetId="8">'Octano (2)'!$A$3:$B$36</definedName>
+    <definedName name="octano_exp_1" localSheetId="12">Butanol!$A$4:$B$46</definedName>
+    <definedName name="octano_exp_1" localSheetId="13">Etanol!$A$4:$B$46</definedName>
     <definedName name="octano_exp_1" localSheetId="6">Metanol!$A$4:$B$46</definedName>
     <definedName name="octano_exp_1" localSheetId="11">'Metanol (2)'!$A$4:$B$46</definedName>
     <definedName name="octano_exp_1" localSheetId="3">Octano!$A$4:$B$37</definedName>
@@ -114,7 +124,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" name="octane_exp3_near2" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="8" name="octane_exp3_near11111" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\b3nw\Downloads\RG\RG\octane_exp3_near.csv" comma="1">
       <textFields count="2">
         <textField/>
@@ -122,7 +132,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" name="octane_exp3_near21" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="9" name="octane_exp3_near111111" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\b3nw\Downloads\RG\RG\octane_exp3_near.csv" comma="1">
       <textFields count="2">
         <textField/>
@@ -130,7 +140,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" name="octane_exp3_near211" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="10" name="octane_exp3_near2" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\b3nw\Downloads\RG\RG\octane_exp3_near.csv" comma="1">
       <textFields count="2">
         <textField/>
@@ -138,7 +148,39 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="11" name="octano_exp" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="11" name="octane_exp3_near21" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\b3nw\Downloads\RG\RG\octane_exp3_near.csv" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="12" name="octane_exp3_near211" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\b3nw\Downloads\RG\RG\octane_exp3_near.csv" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="13" name="octane_exp3_near2111" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\b3nw\Downloads\RG\RG\octane_exp3_near.csv" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="14" name="octane_exp3_near21111" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\b3nw\Downloads\RG\RG\octane_exp3_near.csv" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="15" name="octano_exp" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\b3nw\Downloads\RG\RG\octano_exp.csv" comma="1">
       <textFields count="2">
         <textField/>
@@ -146,7 +188,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="12" name="octano_exp1" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="16" name="octano_exp1" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\b3nw\Downloads\RG\RG\octano_exp.csv" comma="1">
       <textFields count="2">
         <textField/>
@@ -154,7 +196,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="13" name="octano_exp11" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="17" name="octano_exp11" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\b3nw\Downloads\RG\RG\octano_exp.csv" comma="1">
       <textFields count="2">
         <textField/>
@@ -162,7 +204,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="14" name="octano_exp111" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="18" name="octano_exp111" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\b3nw\Downloads\metanol_Tp1.csv" comma="1" semicolon="1">
       <textFields count="2">
         <textField/>
@@ -170,7 +212,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="15" name="octano_exp1111" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="19" name="octano_exp1111" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\b3nw\Downloads\metanol_Tp1.csv" comma="1" semicolon="1">
       <textFields count="2">
         <textField/>
@@ -178,7 +220,23 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="16" name="octano_exp2" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="20" name="octano_exp11111" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\b3nw\Downloads\metanol_Tp1.csv" comma="1" semicolon="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="21" name="octano_exp111111" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\b3nw\Downloads\metanol_Tp1.csv" comma="1" semicolon="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="22" name="octano_exp2" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\b3nw\Downloads\RG\RG\octano_exp.csv" comma="1">
       <textFields count="2">
         <textField/>
@@ -186,7 +244,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="17" name="octano_exp21" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="23" name="octano_exp21" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\b3nw\Downloads\RG\RG\octano_exp.csv" comma="1">
       <textFields count="2">
         <textField/>
@@ -194,7 +252,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="18" name="octano_exp211" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="24" name="octano_exp211" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\b3nw\Downloads\RG\RG\octano_exp.csv" comma="1">
       <textFields count="2">
         <textField/>
@@ -202,7 +260,23 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="19" name="propano_exp" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="25" name="octano_exp2111" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\b3nw\Downloads\RG\RG\octano_exp.csv" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="26" name="octano_exp21111" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\Users\b3nw\Downloads\RG\RG\octano_exp.csv" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="27" name="propano_exp" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\b3nw\Downloads\RG\RG\propano_exp.csv" comma="1">
       <textFields count="2">
         <textField/>
@@ -210,7 +284,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="20" name="propano_exp1" type="6" refreshedVersion="5" background="1" saveData="1">
+  <connection id="28" name="propano_exp1" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="850" sourceFile="C:\Users\b3nw\Downloads\RG\RG\propano_exp.csv" comma="1">
       <textFields count="2">
         <textField/>
@@ -222,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="93">
   <si>
     <t>Checklist</t>
   </si>
@@ -499,6 +573,9 @@
   <si>
     <t>2n+1</t>
   </si>
+  <si>
+    <t>7.8E-10 / phi 1.0</t>
+  </si>
 </sst>
 </file>
 
@@ -508,7 +585,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -530,8 +607,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -607,6 +692,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,7 +788,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -788,6 +879,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -832,6 +926,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7254,6 +7354,3773 @@
         </a:p>
       </c:txPr>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.532469393389741E-2"/>
+          <c:y val="3.8800705467372132E-2"/>
+          <c:w val="0.91362781383352376"/>
+          <c:h val="0.7986829424099765"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Butanol!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.5E-10 / phi 1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Butanol!$W$4:$W$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Butanol!$U$4:$U$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42B5-4CD0-88B9-D59DD34CF6E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Butanol!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.5E-10 / phi 1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Butanol!$V$4:$V$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Butanol!$U$4:$U$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-42B5-4CD0-88B9-D59DD34CF6E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="284735744"/>
+        <c:axId val="284736304"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Butanol!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Experimental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Butanol!$B$4:$B$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>11923.214498628829</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11846.937566639024</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11760.555098200633</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11682.242990654207</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11594.202898550724</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11515.430677107324</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11425.959780621572</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11345.586566825505</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11263.798152737103</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11171.936096525527</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11087.703736556159</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10992.634934593822</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10907.504363001744</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10809.642200843151</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10721.561059290234</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10631.5118009781</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10528.532322594228</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10436.234606553955</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10329.511414110111</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10232.272587741738</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10120.433154539014</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10019.03616872057</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9915.7164105106604</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9795.2786756783225</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9685.230024213075</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9558.4018352131516</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9441.0876132930516</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9304.0565686639366</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9178.5222579164747</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9047.3174703700352</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8892.8412627834587</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8748.906386701663</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8578.5365016728156</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8418.9257450749283</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8227.0670505964626</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8045.0522928399041</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7850.5259852410109</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7613.8267093040959</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7384.4336139418119</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7101.2640249964497</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6822.213125938054</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6470.3979294726623</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6115.8338939514406</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3642.5891523695045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Butanol!$A$4:$A$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>563.04999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-42B5-4CD0-88B9-D59DD34CF6E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Butanol!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Experimental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Butanol!$C$3:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="13">
+                  <c:v>0.29222377912557879</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.53746392273418653</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.89026504080529811</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4281939773059977</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3464704391654072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5445155710569036</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.4800826396462066</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.8553361298329962</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.503905575943033</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.788869473723768</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.360218728639783</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29.362539272396276</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>38.336208548974504</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50.890585241730278</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>64.574454345860772</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>83.236224404861005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>103.11404413281089</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>126.50221378874132</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>157.48031496062993</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>189.71732119142479</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>231.32084200786491</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>275.25461051472615</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>331.45508783559825</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>414.59369817578772</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>491.40049140049138</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>611.99510403916759</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>679.3478260869565</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>852.51491901108272</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1017.0870626525631</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1254.862592546116</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1542.2578655151142</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1901.1406844106464</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3642.5891523695045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Butanol!$A$3:$A$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>464</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>481</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>489</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>563.04999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-42B5-4CD0-88B9-D59DD34CF6E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Butanol!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.8E-10 / phi 1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Butanol!$F$3:$F$500</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="498"/>
+                <c:pt idx="0">
+                  <c:v>564.995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>590.98099999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>618.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>646.73099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>676.65700000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>708.072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>741.077</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>775.78200000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>812.31100000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>850.80100000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>891.40099999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>934.279</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>979.62099999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1027.6400000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1078.56</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1132.6600000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1190.23</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1251.6099999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1317.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1387.42</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1462.81</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1543.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1631.57</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1726.52</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1829.85</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1942.91</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2067.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2206.1799999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2362.88</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2544.39</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2764.58</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3062.91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Butanol!$E$3:$E$500</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="498"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-42B5-4CD0-88B9-D59DD34CF6E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Butanol!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7.8E-10 / phi 1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Butanol!$G$3:$G$500</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="498"/>
+                <c:pt idx="0">
+                  <c:v>7694.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7634.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7572.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7509.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7444.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7378.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7311.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7242.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7171.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7098.79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7024.18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6947.51</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6868.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6787.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6703.84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6617.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6528.26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6435.88</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6340.07</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6240.48</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6136.73</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6028.31</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5914.62</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5794.92</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5668.22</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5533.24</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5388.18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5230.45</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5056</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4857.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4621.8900000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4308.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Butanol!$E$3:$E$500</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="498"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>522</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>532</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>538</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>542</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>546</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>552</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>556</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-42B5-4CD0-88B9-D59DD34CF6E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Butanol!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.5E-10 / phi 1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Butanol!$J$3:$J$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="198"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Butanol!$I$3:$I$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-42B5-4CD0-88B9-D59DD34CF6E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Butanol!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.5E-10 / phi 1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Butanol!$K$3:$K$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="198"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Butanol!$I$3:$I$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-42B5-4CD0-88B9-D59DD34CF6E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Butanol!$M$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5E-10 / phi 1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Butanol!$N$3:$N$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Butanol!$M$3:$M$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-42B5-4CD0-88B9-D59DD34CF6E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Butanol!$M$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5E-10 / phi 1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Butanol!$O$3:$O$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Butanol!$M$3:$M$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-42B5-4CD0-88B9-D59DD34CF6E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Butanol!$Q$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.5E-10 / phi 0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Butanol!$R$3:$R$500</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="498"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Butanol!$Q$3:$Q$500</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="498"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-42B5-4CD0-88B9-D59DD34CF6E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Butanol!$Q$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.5E-10 / phi 0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Butanol!$S$3:$S$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="198"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Butanol!$Q$3:$Q$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="198"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-42B5-4CD0-88B9-D59DD34CF6E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="284735744"/>
+        <c:axId val="284736304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="284735744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="284736304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="284736304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="284735744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.2496004818172181E-2"/>
+          <c:y val="3.6270674894290963E-2"/>
+          <c:w val="0.88581383650381373"/>
+          <c:h val="0.85434395653105033"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Etanol!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.5E-10 / phi 1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Etanol!$W$4:$W$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Etanol!$U$4:$U$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD04-4E55-A31A-A6B1127D4854}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Etanol!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.5E-10 / phi 1.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Etanol!$V$4:$V$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Etanol!$U$4:$U$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FD04-4E55-A31A-A6B1127D4854}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="284735744"/>
+        <c:axId val="284736304"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Etanol!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Experimental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Etanol!$B$4:$B$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>19470.404984423676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19327.406262079629</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19186.492709132774</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19043.99162064369</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18900.018900018902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18754.688672168042</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18611.576400521124</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18463.81093057607</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18318.373328448433</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18171.906232963836</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18021.265092809514</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17873.100983020555</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17721.070352649302</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17568.517217146873</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17415.534656913969</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17259.233690024164</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17102.787754403969</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16940.538709130949</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>16781.339150864238</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16616.816218012627</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16450.074025333113</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16281.341582546402</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16108.247422680413</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15931.177314003506</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15750.511891636479</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15566.625155666254</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15377.518068583731</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15181.417944436009</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14979.029358897542</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14768.867227883624</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14551.804423748545</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14322.543683758238</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14082.52358822701</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13827.433628318584</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13553.808620222282</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13260.840737302746</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12941.633234114146</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12591.286829513976</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12199.585214102721</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11753.643629525153</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11238.480557428635</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10624.734381640459</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9871.6683119447189</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5990.8938413611313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Etanol!$A$4:$A$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>513.91999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FD04-4E55-A31A-A6B1127D4854}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Etanol!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Experimental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Etanol!$C$3:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="61"/>
+                <c:pt idx="9">
+                  <c:v>2.3132084200786492E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8947626040137054E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.8231827111984277E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.18798738078310279</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.34439637818992841</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.6063082738039659</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0291877650158494</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.689565916724675</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.6898061725672044</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1630066899517502</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.2778974066005819</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.2434256135323754</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.313274666169638</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.789928598271324</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.028110359187924</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>35.440884604479727</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47.499168764546624</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>62.743129627305819</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>81.786210844851553</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>105.31858873091102</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>134.1381623071764</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>169.14749661705008</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>211.41649048625791</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>262.19192448872576</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>322.89312237649335</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>395.56962025316454</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>482.39266763145201</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>586.85446009389671</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>705.21861777150912</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>855.43199315654397</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1038.637307852098</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1265.9830358273198</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1554.4846883258201</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1936.1084220716361</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2481.3895781637716</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3461.4053305642096</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5990.8938413611313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Etanol!$A$3:$A$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="70"/>
+                <c:pt idx="0">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>463</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>513.91999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FD04-4E55-A31A-A6B1127D4854}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Etanol!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Etanol!$F$3:$F$500</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="498"/>
+                <c:pt idx="0">
+                  <c:v>173.33600000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>185.631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>198.60300000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>212.31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226.76</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>241.98400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>258.029</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>274.92200000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>292.69799999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>311.39400000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>331.04899999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>351.70400000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>373.40100000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>396.18400000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>420.101</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>445.20100000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>471.53699999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>499.16</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>528.13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>558.50900000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>590.36</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>623.75300000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>658.76099999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>695.46400000000006</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>733.94399999999996</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>774.29399999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>816.60900000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>860.995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>907.56600000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>956.44600000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1007.77</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1061.68</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1118.3499999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1177.95</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1240.68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1306.76</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1376.44</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1449.98</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1527.72</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1610.01</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1697.26</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1789.96</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1888.65</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1994.02</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2106.87</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2228.16</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2359.11</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2501.2800000000002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2656.65</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2827.94</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3018.94</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3235.28</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3486.01</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3787.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4176.16</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4785.8599999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5560.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Etanol!$E$3:$E$500</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="498"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>402.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>407.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>412.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>417.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>422.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>427.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>432.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>437.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>442.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>447.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>452.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>457.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>462.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>467.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>472.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>477.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>482.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>487.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>492.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>497.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>502.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>507.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>512.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>517.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>522.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>527.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>532.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>537.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>538.84100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FD04-4E55-A31A-A6B1127D4854}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Etanol!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Etanol!$G$3:$G$500</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="498"/>
+                <c:pt idx="0">
+                  <c:v>14797.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14728.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14658.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14587.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14515.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14441.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14367</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14290.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14213.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14134.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14054.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13973.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13890.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13805.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13719.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>13631.7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>13542.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13451</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13358</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13263.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13166.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13067.4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>12966.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12863.3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12757.9</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12650.1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12539.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>12427</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12311.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12193.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>12071.8</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>11947.4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11819.6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11688.4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11553.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11414.7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11271.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11124.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10972</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10814.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10651.7</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10482.6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10307</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10124</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9932.94</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9732.74</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9522.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9299.7800000000007</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9063.4500000000007</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8810.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>8537.1200000000008</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>8237.66</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7903.06</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7516.96</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>7042.9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6347.02</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5560.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Etanol!$E$3:$E$500</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="498"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>402.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>407.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>412.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>417.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>422.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>427.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>432.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>437.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>442.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>447.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>452.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>457.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>462.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>467.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>472.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>477.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>482.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>485</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>487.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>492.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>497.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>502.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>507.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>512.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>515</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>517.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>522.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>527.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>532.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>537.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>538.84100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FD04-4E55-A31A-A6B1127D4854}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Etanol!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.5E-10 / phi 1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Etanol!$J$3:$J$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="198"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Etanol!$I$3:$I$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FD04-4E55-A31A-A6B1127D4854}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Etanol!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.5E-10 / phi 1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Etanol!$K$3:$K$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="198"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Etanol!$I$3:$I$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-FD04-4E55-A31A-A6B1127D4854}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Etanol!$M$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5E-10 / phi 1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Etanol!$N$3:$N$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Etanol!$M$3:$M$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-FD04-4E55-A31A-A6B1127D4854}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Etanol!$M$1:$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5E-10 / phi 1.0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Etanol!$O$3:$O$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Etanol!$M$3:$M$198</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="196"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-FD04-4E55-A31A-A6B1127D4854}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Etanol!$Q$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.5E-10 / phi 0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Etanol!$R$3:$R$500</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="498"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Etanol!$Q$3:$Q$500</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="498"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-FD04-4E55-A31A-A6B1127D4854}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Etanol!$Q$1:$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.5E-10 / phi 0.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Etanol!$S$3:$S$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="198"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Etanol!$Q$3:$Q$200</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="198"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-FD04-4E55-A31A-A6B1127D4854}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="284735744"/>
+        <c:axId val="284736304"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="284735744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="20000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="284736304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="284736304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="600"/>
+          <c:min val="300"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="284735744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -35851,6 +39718,92 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE77166-96A6-4B10-B5BC-4F84BC8A9BDE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FE73CA-7CCF-4C3C-860D-FA6DDBE67692}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -36230,7 +40183,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36238,15 +40191,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp_1" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp_1" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36254,19 +40207,19 @@
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp_1" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp_1" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36277,32 +40230,64 @@
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near_1" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near_1" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp_1" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp_1" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near_1" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="propano_exp_1" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="propano_exp_1" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="propano_exp" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="propano_exp" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp_1" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp_1" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp_1" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp_1" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36570,7 +40555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -36593,14 +40578,14 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
       <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
@@ -36703,25 +40688,25 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="1"/>
-      <c r="J10" s="37" t="s">
+      <c r="J10" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -37485,25 +41470,25 @@
       <c r="P34" s="23"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="39"/>
       <c r="H35" s="1"/>
-      <c r="J35" s="37" t="s">
+      <c r="J35" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="37"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="37"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
@@ -39176,7 +43161,7 @@
   <dimension ref="A1:AF74"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39190,50 +43175,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="42" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="46" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="48" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="50" t="s">
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
@@ -42111,6 +46096,2598 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF74"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12" style="11" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="11"/>
+    <col min="5" max="5" width="6.5703125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="11" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>186</v>
+      </c>
+      <c r="B3" s="5">
+        <v>11999.040076793857</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="25">
+        <v>500</v>
+      </c>
+      <c r="F3" s="11">
+        <v>564.995</v>
+      </c>
+      <c r="G3" s="11">
+        <v>7694.54</v>
+      </c>
+      <c r="H3" s="11">
+        <v>1.7382299999999999</v>
+      </c>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>194</v>
+      </c>
+      <c r="B4" s="37">
+        <v>11923.214498628829</v>
+      </c>
+      <c r="E4" s="25">
+        <v>502</v>
+      </c>
+      <c r="F4" s="11">
+        <v>590.98099999999999</v>
+      </c>
+      <c r="G4" s="11">
+        <v>7634.14</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1.80697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>202</v>
+      </c>
+      <c r="B5" s="11">
+        <v>11846.937566639024</v>
+      </c>
+      <c r="E5" s="25">
+        <v>504</v>
+      </c>
+      <c r="F5" s="11">
+        <v>618.20000000000005</v>
+      </c>
+      <c r="G5" s="11">
+        <v>7572.45</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1.87781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>211</v>
+      </c>
+      <c r="B6" s="11">
+        <v>11760.555098200633</v>
+      </c>
+      <c r="E6" s="25">
+        <v>506</v>
+      </c>
+      <c r="F6" s="11">
+        <v>646.73099999999999</v>
+      </c>
+      <c r="G6" s="11">
+        <v>7509.4</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1.95082</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>219</v>
+      </c>
+      <c r="B7" s="11">
+        <v>11682.242990654207</v>
+      </c>
+      <c r="E7" s="25">
+        <v>508</v>
+      </c>
+      <c r="F7" s="11">
+        <v>676.65700000000004</v>
+      </c>
+      <c r="G7" s="11">
+        <v>7444.94</v>
+      </c>
+      <c r="H7" s="11">
+        <v>2.0260400000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>228</v>
+      </c>
+      <c r="B8" s="11">
+        <v>11594.202898550724</v>
+      </c>
+      <c r="E8" s="25">
+        <v>510</v>
+      </c>
+      <c r="F8" s="11">
+        <v>708.072</v>
+      </c>
+      <c r="G8" s="11">
+        <v>7378.99</v>
+      </c>
+      <c r="H8" s="11">
+        <v>2.1035300000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>236</v>
+      </c>
+      <c r="B9" s="11">
+        <v>11515.430677107324</v>
+      </c>
+      <c r="E9" s="25">
+        <v>512</v>
+      </c>
+      <c r="F9" s="11">
+        <v>741.077</v>
+      </c>
+      <c r="G9" s="11">
+        <v>7311.49</v>
+      </c>
+      <c r="H9" s="11">
+        <v>2.1833499999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>245</v>
+      </c>
+      <c r="B10" s="11">
+        <v>11425.959780621572</v>
+      </c>
+      <c r="E10" s="25">
+        <v>514</v>
+      </c>
+      <c r="F10" s="11">
+        <v>775.78200000000004</v>
+      </c>
+      <c r="G10" s="11">
+        <v>7242.35</v>
+      </c>
+      <c r="H10" s="11">
+        <v>2.2655400000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>253</v>
+      </c>
+      <c r="B11" s="11">
+        <v>11345.586566825505</v>
+      </c>
+      <c r="E11" s="25">
+        <v>516</v>
+      </c>
+      <c r="F11" s="11">
+        <v>812.31100000000004</v>
+      </c>
+      <c r="G11" s="11">
+        <v>7171.48</v>
+      </c>
+      <c r="H11" s="11">
+        <v>2.3501799999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>261</v>
+      </c>
+      <c r="B12" s="11">
+        <v>11263.798152737103</v>
+      </c>
+      <c r="E12" s="25">
+        <v>518</v>
+      </c>
+      <c r="F12" s="11">
+        <v>850.80100000000004</v>
+      </c>
+      <c r="G12" s="11">
+        <v>7098.79</v>
+      </c>
+      <c r="H12" s="11">
+        <v>2.4373200000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>270</v>
+      </c>
+      <c r="B13" s="11">
+        <v>11171.936096525527</v>
+      </c>
+      <c r="E13" s="25">
+        <v>520</v>
+      </c>
+      <c r="F13" s="11">
+        <v>891.40099999999995</v>
+      </c>
+      <c r="G13" s="11">
+        <v>7024.18</v>
+      </c>
+      <c r="H13" s="11">
+        <v>2.5270299999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>278</v>
+      </c>
+      <c r="B14" s="11">
+        <v>11087.703736556159</v>
+      </c>
+      <c r="E14" s="25">
+        <v>522</v>
+      </c>
+      <c r="F14" s="11">
+        <v>934.279</v>
+      </c>
+      <c r="G14" s="11">
+        <v>6947.51</v>
+      </c>
+      <c r="H14" s="11">
+        <v>2.6193599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>287</v>
+      </c>
+      <c r="B15" s="11">
+        <v>10992.634934593822</v>
+      </c>
+      <c r="E15" s="25">
+        <v>524</v>
+      </c>
+      <c r="F15" s="11">
+        <v>979.62099999999998</v>
+      </c>
+      <c r="G15" s="11">
+        <v>6868.67</v>
+      </c>
+      <c r="H15" s="11">
+        <v>2.7143999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>295</v>
+      </c>
+      <c r="B16" s="11">
+        <v>10907.504363001744</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.29222377912557879</v>
+      </c>
+      <c r="D16" s="11">
+        <v>7.1480000000000003E-4</v>
+      </c>
+      <c r="E16" s="25">
+        <v>526</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1027.6400000000001</v>
+      </c>
+      <c r="G16" s="11">
+        <v>6787.5</v>
+      </c>
+      <c r="H16" s="11">
+        <v>2.8122099999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>304</v>
+      </c>
+      <c r="B17" s="11">
+        <v>10809.642200843151</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.53746392273418653</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1.353E-3</v>
+      </c>
+      <c r="E17" s="25">
+        <v>528</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1078.56</v>
+      </c>
+      <c r="G17" s="11">
+        <v>6703.84</v>
+      </c>
+      <c r="H17" s="11">
+        <v>2.9128699999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>312</v>
+      </c>
+      <c r="B18" s="11">
+        <v>10721.561059290234</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.89026504080529811</v>
+      </c>
+      <c r="D18" s="11">
+        <v>2.2980000000000001E-3</v>
+      </c>
+      <c r="E18" s="25">
+        <v>530</v>
+      </c>
+      <c r="F18" s="11">
+        <v>1132.6600000000001</v>
+      </c>
+      <c r="G18" s="11">
+        <v>6617.5</v>
+      </c>
+      <c r="H18" s="11">
+        <v>3.0164499999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>320</v>
+      </c>
+      <c r="B19" s="11">
+        <v>10631.5118009781</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1.4281939773059977</v>
+      </c>
+      <c r="D19" s="11">
+        <v>3.777E-3</v>
+      </c>
+      <c r="E19" s="25">
+        <v>532</v>
+      </c>
+      <c r="F19" s="11">
+        <v>1190.23</v>
+      </c>
+      <c r="G19" s="11">
+        <v>6528.26</v>
+      </c>
+      <c r="H19" s="11">
+        <v>3.1230199999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>329</v>
+      </c>
+      <c r="B20" s="11">
+        <v>10528.532322594228</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2.3464704391654072</v>
+      </c>
+      <c r="D20" s="11">
+        <v>6.3670000000000003E-3</v>
+      </c>
+      <c r="E20" s="25">
+        <v>534</v>
+      </c>
+      <c r="F20" s="11">
+        <v>1251.6099999999999</v>
+      </c>
+      <c r="G20" s="11">
+        <v>6435.88</v>
+      </c>
+      <c r="H20" s="11">
+        <v>3.2326800000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>337</v>
+      </c>
+      <c r="B21" s="11">
+        <v>10436.234606553955</v>
+      </c>
+      <c r="C21" s="11">
+        <v>3.5445155710569036</v>
+      </c>
+      <c r="D21" s="11">
+        <v>9.8329999999999997E-3</v>
+      </c>
+      <c r="E21" s="25">
+        <v>536</v>
+      </c>
+      <c r="F21" s="11">
+        <v>1317.2</v>
+      </c>
+      <c r="G21" s="11">
+        <v>6340.07</v>
+      </c>
+      <c r="H21" s="11">
+        <v>3.3454899999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>346</v>
+      </c>
+      <c r="B22" s="11">
+        <v>10329.511414110111</v>
+      </c>
+      <c r="C22" s="11">
+        <v>5.4800826396462066</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1.554E-2</v>
+      </c>
+      <c r="E22" s="25">
+        <v>538</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1387.42</v>
+      </c>
+      <c r="G22" s="11">
+        <v>6240.48</v>
+      </c>
+      <c r="H22" s="11">
+        <v>3.46156</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>354</v>
+      </c>
+      <c r="B23" s="11">
+        <v>10232.272587741738</v>
+      </c>
+      <c r="C23" s="11">
+        <v>7.8553361298329962</v>
+      </c>
+      <c r="D23" s="11">
+        <v>2.2760000000000002E-2</v>
+      </c>
+      <c r="E23" s="25">
+        <v>540</v>
+      </c>
+      <c r="F23" s="11">
+        <v>1462.81</v>
+      </c>
+      <c r="G23" s="11">
+        <v>6136.73</v>
+      </c>
+      <c r="H23" s="11">
+        <v>3.5809500000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>363</v>
+      </c>
+      <c r="B24" s="11">
+        <v>10120.433154539014</v>
+      </c>
+      <c r="C24" s="11">
+        <v>11.503905575943033</v>
+      </c>
+      <c r="D24" s="11">
+        <v>3.4049999999999997E-2</v>
+      </c>
+      <c r="E24" s="25">
+        <v>542</v>
+      </c>
+      <c r="F24" s="11">
+        <v>1543.95</v>
+      </c>
+      <c r="G24" s="11">
+        <v>6028.31</v>
+      </c>
+      <c r="H24" s="11">
+        <v>3.70377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>371</v>
+      </c>
+      <c r="B25" s="11">
+        <v>10019.03616872057</v>
+      </c>
+      <c r="C25" s="11">
+        <v>18.788869473723768</v>
+      </c>
+      <c r="D25" s="11">
+        <v>4.7659999999999994E-2</v>
+      </c>
+      <c r="E25" s="25">
+        <v>544</v>
+      </c>
+      <c r="F25" s="11">
+        <v>1631.57</v>
+      </c>
+      <c r="G25" s="11">
+        <v>5914.62</v>
+      </c>
+      <c r="H25" s="11">
+        <v>3.8300900000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>379</v>
+      </c>
+      <c r="B26" s="11">
+        <v>9915.7164105106604</v>
+      </c>
+      <c r="C26" s="11">
+        <v>21.360218728639783</v>
+      </c>
+      <c r="D26" s="11">
+        <v>6.5450000000000008E-2</v>
+      </c>
+      <c r="E26" s="25">
+        <v>546</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1726.52</v>
+      </c>
+      <c r="G26" s="11">
+        <v>5794.92</v>
+      </c>
+      <c r="H26" s="11">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>388</v>
+      </c>
+      <c r="B27" s="11">
+        <v>9795.2786756783225</v>
+      </c>
+      <c r="C27" s="11">
+        <v>29.362539272396276</v>
+      </c>
+      <c r="D27" s="11">
+        <v>9.1569999999999999E-2</v>
+      </c>
+      <c r="E27" s="25">
+        <v>548</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1829.85</v>
+      </c>
+      <c r="G27" s="11">
+        <v>5668.22</v>
+      </c>
+      <c r="H27" s="11">
+        <v>4.0935800000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>396</v>
+      </c>
+      <c r="B28" s="11">
+        <v>9685.230024213075</v>
+      </c>
+      <c r="C28" s="11">
+        <v>38.336208548974504</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0.12129999999999999</v>
+      </c>
+      <c r="E28" s="25">
+        <v>550</v>
+      </c>
+      <c r="F28" s="11">
+        <v>1942.91</v>
+      </c>
+      <c r="G28" s="11">
+        <v>5533.24</v>
+      </c>
+      <c r="H28" s="11">
+        <v>4.2309099999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>405</v>
+      </c>
+      <c r="B29" s="11">
+        <v>9558.4018352131516</v>
+      </c>
+      <c r="C29" s="11">
+        <v>50.890585241730278</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0.16340000000000002</v>
+      </c>
+      <c r="E29" s="25">
+        <v>552</v>
+      </c>
+      <c r="F29" s="11">
+        <v>2067.5</v>
+      </c>
+      <c r="G29" s="11">
+        <v>5388.18</v>
+      </c>
+      <c r="H29" s="11">
+        <v>4.3720299999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>413</v>
+      </c>
+      <c r="B30" s="11">
+        <v>9441.0876132930516</v>
+      </c>
+      <c r="C30" s="11">
+        <v>64.574454345860772</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0.20980000000000001</v>
+      </c>
+      <c r="E30" s="25">
+        <v>554</v>
+      </c>
+      <c r="F30" s="11">
+        <v>2206.1799999999998</v>
+      </c>
+      <c r="G30" s="11">
+        <v>5230.45</v>
+      </c>
+      <c r="H30" s="11">
+        <v>4.5170199999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>422</v>
+      </c>
+      <c r="B31" s="11">
+        <v>9304.0565686639366</v>
+      </c>
+      <c r="C31" s="11">
+        <v>83.236224404861005</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0.2737</v>
+      </c>
+      <c r="E31" s="25">
+        <v>556</v>
+      </c>
+      <c r="F31" s="11">
+        <v>2362.88</v>
+      </c>
+      <c r="G31" s="11">
+        <v>5056</v>
+      </c>
+      <c r="H31" s="11">
+        <v>4.6658900000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>430</v>
+      </c>
+      <c r="B32" s="11">
+        <v>9178.5222579164747</v>
+      </c>
+      <c r="C32" s="11">
+        <v>103.11404413281089</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0.3422</v>
+      </c>
+      <c r="E32" s="25">
+        <v>558</v>
+      </c>
+      <c r="F32" s="11">
+        <v>2544.39</v>
+      </c>
+      <c r="G32" s="11">
+        <v>4857.8599999999997</v>
+      </c>
+      <c r="H32" s="11">
+        <v>4.81867</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>438</v>
+      </c>
+      <c r="B33" s="11">
+        <v>9047.3174703700352</v>
+      </c>
+      <c r="C33" s="11">
+        <v>126.50221378874132</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0.42310000000000003</v>
+      </c>
+      <c r="E33" s="25">
+        <v>560</v>
+      </c>
+      <c r="F33" s="11">
+        <v>2764.58</v>
+      </c>
+      <c r="G33" s="11">
+        <v>4621.8900000000003</v>
+      </c>
+      <c r="H33" s="11">
+        <v>4.9753299999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>447</v>
+      </c>
+      <c r="B34" s="11">
+        <v>8892.8412627834587</v>
+      </c>
+      <c r="C34" s="11">
+        <v>157.48031496062993</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0.53060000000000007</v>
+      </c>
+      <c r="E34" s="25">
+        <v>562</v>
+      </c>
+      <c r="F34" s="11">
+        <v>3062.91</v>
+      </c>
+      <c r="G34" s="11">
+        <v>4308.33</v>
+      </c>
+      <c r="H34" s="11">
+        <v>5.1358600000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>455</v>
+      </c>
+      <c r="B35" s="11">
+        <v>8748.906386701663</v>
+      </c>
+      <c r="C35" s="11">
+        <v>189.71732119142479</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0.64219999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>464</v>
+      </c>
+      <c r="B36" s="11">
+        <v>8578.5365016728156</v>
+      </c>
+      <c r="C36" s="11">
+        <v>231.32084200786491</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0.78770000000000007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>472</v>
+      </c>
+      <c r="B37" s="1">
+        <v>8418.9257450749283</v>
+      </c>
+      <c r="C37" s="11">
+        <v>275.25461051472615</v>
+      </c>
+      <c r="D37" s="11">
+        <v>0.93629999999999991</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>481</v>
+      </c>
+      <c r="B38" s="11">
+        <v>8227.0670505964626</v>
+      </c>
+      <c r="C38" s="11">
+        <v>331.45508783559825</v>
+      </c>
+      <c r="D38" s="11">
+        <v>1.127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>489</v>
+      </c>
+      <c r="B39" s="11">
+        <v>8045.0522928399041</v>
+      </c>
+      <c r="C39" s="11">
+        <v>414.59369817578772</v>
+      </c>
+      <c r="D39" s="11">
+        <v>1.319</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>497</v>
+      </c>
+      <c r="B40" s="11">
+        <v>7850.5259852410109</v>
+      </c>
+      <c r="C40" s="11">
+        <v>491.40049140049138</v>
+      </c>
+      <c r="D40" s="11">
+        <v>1.534</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>506</v>
+      </c>
+      <c r="B41" s="11">
+        <v>7613.8267093040959</v>
+      </c>
+      <c r="C41" s="11">
+        <v>611.99510403916759</v>
+      </c>
+      <c r="D41" s="11">
+        <v>1.8049999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>514</v>
+      </c>
+      <c r="B42" s="11">
+        <v>7384.4336139418119</v>
+      </c>
+      <c r="C42" s="11">
+        <v>679.3478260869565</v>
+      </c>
+      <c r="D42" s="11">
+        <v>2.073</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>523</v>
+      </c>
+      <c r="B43" s="11">
+        <v>7101.2640249964497</v>
+      </c>
+      <c r="C43" s="11">
+        <v>852.51491901108272</v>
+      </c>
+      <c r="D43" s="11">
+        <v>2.4089999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>531</v>
+      </c>
+      <c r="B44" s="11">
+        <v>6822.213125938054</v>
+      </c>
+      <c r="C44" s="11">
+        <v>1017.0870626525631</v>
+      </c>
+      <c r="D44" s="11">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>540</v>
+      </c>
+      <c r="B45" s="11">
+        <v>6470.3979294726623</v>
+      </c>
+      <c r="C45" s="11">
+        <v>1254.862592546116</v>
+      </c>
+      <c r="D45" s="11">
+        <v>3.1520000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>548</v>
+      </c>
+      <c r="B46" s="11">
+        <v>6115.8338939514406</v>
+      </c>
+      <c r="C46" s="11">
+        <v>1542.2578655151142</v>
+      </c>
+      <c r="D46" s="11">
+        <v>3.5550000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>556</v>
+      </c>
+      <c r="C47" s="11">
+        <v>1901.1406844106464</v>
+      </c>
+      <c r="D47" s="11">
+        <v>3.9980000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>563.04999999999995</v>
+      </c>
+      <c r="B48" s="11">
+        <v>3642.5891523695045</v>
+      </c>
+      <c r="C48" s="11">
+        <v>3642.5891523695045</v>
+      </c>
+      <c r="D48" s="11">
+        <v>4.423</v>
+      </c>
+    </row>
+    <row r="74" spans="21:23" x14ac:dyDescent="0.25">
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:X1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AF74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12" style="11" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="11"/>
+    <col min="5" max="5" width="6.5703125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="11" style="11" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="W2" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>159</v>
+      </c>
+      <c r="B3" s="5">
+        <v>19607.843137254902</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="25">
+        <v>400</v>
+      </c>
+      <c r="F3" s="11">
+        <v>173.33600000000001</v>
+      </c>
+      <c r="G3" s="11">
+        <v>14797.6</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0.52730299999999997</v>
+      </c>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>167</v>
+      </c>
+      <c r="B4" s="37">
+        <v>19470.404984423676</v>
+      </c>
+      <c r="E4" s="25">
+        <v>402.5</v>
+      </c>
+      <c r="F4" s="11">
+        <v>185.631</v>
+      </c>
+      <c r="G4" s="11">
+        <v>14728.7</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.56596199999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>175</v>
+      </c>
+      <c r="B5" s="11">
+        <v>19327.406262079629</v>
+      </c>
+      <c r="E5" s="25">
+        <v>405</v>
+      </c>
+      <c r="F5" s="11">
+        <v>198.60300000000001</v>
+      </c>
+      <c r="G5" s="11">
+        <v>14658.7</v>
+      </c>
+      <c r="H5" s="11">
+        <v>0.606792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>183</v>
+      </c>
+      <c r="B6" s="11">
+        <v>19186.492709132774</v>
+      </c>
+      <c r="E6" s="25">
+        <v>407.5</v>
+      </c>
+      <c r="F6" s="11">
+        <v>212.31</v>
+      </c>
+      <c r="G6" s="11">
+        <v>14587.6</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0.64986999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>191</v>
+      </c>
+      <c r="B7" s="11">
+        <v>19043.99162064369</v>
+      </c>
+      <c r="E7" s="25">
+        <v>410</v>
+      </c>
+      <c r="F7" s="11">
+        <v>226.76</v>
+      </c>
+      <c r="G7" s="11">
+        <v>14515.2</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0.69527899999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>199</v>
+      </c>
+      <c r="B8" s="11">
+        <v>18900.018900018902</v>
+      </c>
+      <c r="E8" s="25">
+        <v>412.5</v>
+      </c>
+      <c r="F8" s="11">
+        <v>241.98400000000001</v>
+      </c>
+      <c r="G8" s="11">
+        <v>14441.7</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0.74309899999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>207</v>
+      </c>
+      <c r="B9" s="11">
+        <v>18754.688672168042</v>
+      </c>
+      <c r="E9" s="25">
+        <v>415</v>
+      </c>
+      <c r="F9" s="11">
+        <v>258.029</v>
+      </c>
+      <c r="G9" s="11">
+        <v>14367</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.79341300000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>215</v>
+      </c>
+      <c r="B10" s="11">
+        <v>18611.576400521124</v>
+      </c>
+      <c r="E10" s="25">
+        <v>417.5</v>
+      </c>
+      <c r="F10" s="11">
+        <v>274.92200000000003</v>
+      </c>
+      <c r="G10" s="11">
+        <v>14290.9</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0.84630399999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>223</v>
+      </c>
+      <c r="B11" s="11">
+        <v>18463.81093057607</v>
+      </c>
+      <c r="E11" s="25">
+        <v>420</v>
+      </c>
+      <c r="F11" s="11">
+        <v>292.69799999999998</v>
+      </c>
+      <c r="G11" s="11">
+        <v>14213.6</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0.90185499999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>231</v>
+      </c>
+      <c r="B12" s="11">
+        <v>18318.373328448433</v>
+      </c>
+      <c r="C12" s="11">
+        <v>2.3132084200786492E-2</v>
+      </c>
+      <c r="D12" s="11">
+        <v>4.4409999999999997E-5</v>
+      </c>
+      <c r="E12" s="25">
+        <v>422.5</v>
+      </c>
+      <c r="F12" s="11">
+        <v>311.39400000000001</v>
+      </c>
+      <c r="G12" s="11">
+        <v>14134.9</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0.96015200000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>239</v>
+      </c>
+      <c r="B13" s="11">
+        <v>18171.906232963836</v>
+      </c>
+      <c r="C13" s="11">
+        <v>4.8947626040137054E-2</v>
+      </c>
+      <c r="D13" s="11">
+        <v>9.7180000000000001E-5</v>
+      </c>
+      <c r="E13" s="25">
+        <v>425</v>
+      </c>
+      <c r="F13" s="11">
+        <v>331.04899999999998</v>
+      </c>
+      <c r="G13" s="11">
+        <v>14054.8</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1.02128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>247</v>
+      </c>
+      <c r="B14" s="11">
+        <v>18021.265092809514</v>
+      </c>
+      <c r="C14" s="11">
+        <v>9.8231827111984277E-2</v>
+      </c>
+      <c r="D14" s="11">
+        <v>2.0150000000000002E-4</v>
+      </c>
+      <c r="E14" s="25">
+        <v>427.5</v>
+      </c>
+      <c r="F14" s="11">
+        <v>351.70400000000001</v>
+      </c>
+      <c r="G14" s="11">
+        <v>13973.2</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1.0853299999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>255</v>
+      </c>
+      <c r="B15" s="11">
+        <v>17873.100983020555</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.18798738078310279</v>
+      </c>
+      <c r="D15" s="11">
+        <v>3.9779999999999997E-4</v>
+      </c>
+      <c r="E15" s="25">
+        <v>430</v>
+      </c>
+      <c r="F15" s="11">
+        <v>373.40100000000001</v>
+      </c>
+      <c r="G15" s="11">
+        <v>13890.2</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1.1523699999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>263</v>
+      </c>
+      <c r="B16" s="11">
+        <v>17721.070352649302</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.34439637818992841</v>
+      </c>
+      <c r="D16" s="11">
+        <v>7.5109999999999999E-4</v>
+      </c>
+      <c r="E16" s="25">
+        <v>432.5</v>
+      </c>
+      <c r="F16" s="11">
+        <v>396.18400000000003</v>
+      </c>
+      <c r="G16" s="11">
+        <v>13805.6</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1.22251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>271</v>
+      </c>
+      <c r="B17" s="11">
+        <v>17568.517217146873</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.6063082738039659</v>
+      </c>
+      <c r="D17" s="11">
+        <v>1.361E-3</v>
+      </c>
+      <c r="E17" s="25">
+        <v>435</v>
+      </c>
+      <c r="F17" s="11">
+        <v>420.101</v>
+      </c>
+      <c r="G17" s="11">
+        <v>13719.5</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1.29583</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>279</v>
+      </c>
+      <c r="B18" s="11">
+        <v>17415.534656913969</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1.0291877650158494</v>
+      </c>
+      <c r="D18" s="11">
+        <v>2.3760000000000001E-3</v>
+      </c>
+      <c r="E18" s="25">
+        <v>437.5</v>
+      </c>
+      <c r="F18" s="11">
+        <v>445.20100000000002</v>
+      </c>
+      <c r="G18" s="11">
+        <v>13631.7</v>
+      </c>
+      <c r="H18" s="11">
+        <v>1.37242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>287</v>
+      </c>
+      <c r="B19" s="11">
+        <v>17259.233690024164</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1.689565916724675</v>
+      </c>
+      <c r="D19" s="11">
+        <v>4.0049999999999999E-3</v>
+      </c>
+      <c r="E19" s="25">
+        <v>440</v>
+      </c>
+      <c r="F19" s="11">
+        <v>471.53699999999998</v>
+      </c>
+      <c r="G19" s="11">
+        <v>13542.3</v>
+      </c>
+      <c r="H19" s="11">
+        <v>1.4523600000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>295</v>
+      </c>
+      <c r="B20" s="11">
+        <v>17102.787754403969</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2.6898061725672044</v>
+      </c>
+      <c r="D20" s="11">
+        <v>6.5409999999999999E-3</v>
+      </c>
+      <c r="E20" s="25">
+        <v>442.5</v>
+      </c>
+      <c r="F20" s="11">
+        <v>499.16</v>
+      </c>
+      <c r="G20" s="11">
+        <v>13451</v>
+      </c>
+      <c r="H20" s="11">
+        <v>1.5357400000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>303</v>
+      </c>
+      <c r="B21" s="11">
+        <v>16940.538709130949</v>
+      </c>
+      <c r="C21" s="11">
+        <v>4.1630066899517502</v>
+      </c>
+      <c r="D21" s="11">
+        <v>1.0369999999999999E-2</v>
+      </c>
+      <c r="E21" s="25">
+        <v>445</v>
+      </c>
+      <c r="F21" s="11">
+        <v>528.13</v>
+      </c>
+      <c r="G21" s="11">
+        <v>13358</v>
+      </c>
+      <c r="H21" s="11">
+        <v>1.62266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>311</v>
+      </c>
+      <c r="B22" s="11">
+        <v>16781.339150864238</v>
+      </c>
+      <c r="C22" s="11">
+        <v>6.2778974066005819</v>
+      </c>
+      <c r="D22" s="11">
+        <v>1.601E-2</v>
+      </c>
+      <c r="E22" s="25">
+        <v>447.5</v>
+      </c>
+      <c r="F22" s="11">
+        <v>558.50900000000001</v>
+      </c>
+      <c r="G22" s="11">
+        <v>13263.1</v>
+      </c>
+      <c r="H22" s="11">
+        <v>1.7132099999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>319</v>
+      </c>
+      <c r="B23" s="11">
+        <v>16616.816218012627</v>
+      </c>
+      <c r="C23" s="11">
+        <v>9.2434256135323754</v>
+      </c>
+      <c r="D23" s="11">
+        <v>2.41E-2</v>
+      </c>
+      <c r="E23" s="25">
+        <v>450</v>
+      </c>
+      <c r="F23" s="11">
+        <v>590.36</v>
+      </c>
+      <c r="G23" s="11">
+        <v>13166.3</v>
+      </c>
+      <c r="H23" s="11">
+        <v>1.8074699999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>327</v>
+      </c>
+      <c r="B24" s="11">
+        <v>16450.074025333113</v>
+      </c>
+      <c r="C24" s="11">
+        <v>13.313274666169638</v>
+      </c>
+      <c r="D24" s="11">
+        <v>3.5430000000000003E-2</v>
+      </c>
+      <c r="E24" s="25">
+        <v>452.5</v>
+      </c>
+      <c r="F24" s="11">
+        <v>623.75300000000004</v>
+      </c>
+      <c r="G24" s="11">
+        <v>13067.4</v>
+      </c>
+      <c r="H24" s="11">
+        <v>1.9055299999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>335</v>
+      </c>
+      <c r="B25" s="11">
+        <v>16281.341582546402</v>
+      </c>
+      <c r="C25" s="11">
+        <v>18.789928598271324</v>
+      </c>
+      <c r="D25" s="11">
+        <v>5.0990000000000001E-2</v>
+      </c>
+      <c r="E25" s="25">
+        <v>455</v>
+      </c>
+      <c r="F25" s="11">
+        <v>658.76099999999997</v>
+      </c>
+      <c r="G25" s="11">
+        <v>12966.4</v>
+      </c>
+      <c r="H25" s="11">
+        <v>2.0074900000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>343</v>
+      </c>
+      <c r="B26" s="11">
+        <v>16108.247422680413</v>
+      </c>
+      <c r="C26" s="11">
+        <v>26.028110359187924</v>
+      </c>
+      <c r="D26" s="11">
+        <v>7.1940000000000004E-2</v>
+      </c>
+      <c r="E26" s="25">
+        <v>457.5</v>
+      </c>
+      <c r="F26" s="11">
+        <v>695.46400000000006</v>
+      </c>
+      <c r="G26" s="11">
+        <v>12863.3</v>
+      </c>
+      <c r="H26" s="11">
+        <v>2.1134400000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>351</v>
+      </c>
+      <c r="B27" s="11">
+        <v>15931.177314003506</v>
+      </c>
+      <c r="C27" s="11">
+        <v>35.440884604479727</v>
+      </c>
+      <c r="D27" s="11">
+        <v>9.9610000000000004E-2</v>
+      </c>
+      <c r="E27" s="25">
+        <v>460</v>
+      </c>
+      <c r="F27" s="11">
+        <v>733.94399999999996</v>
+      </c>
+      <c r="G27" s="11">
+        <v>12757.9</v>
+      </c>
+      <c r="H27" s="11">
+        <v>2.2234699999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>359</v>
+      </c>
+      <c r="B28" s="11">
+        <v>15750.511891636479</v>
+      </c>
+      <c r="C28" s="11">
+        <v>47.499168764546624</v>
+      </c>
+      <c r="D28" s="11">
+        <v>0.1356</v>
+      </c>
+      <c r="E28" s="25">
+        <v>462.5</v>
+      </c>
+      <c r="F28" s="11">
+        <v>774.29399999999998</v>
+      </c>
+      <c r="G28" s="11">
+        <v>12650.1</v>
+      </c>
+      <c r="H28" s="11">
+        <v>2.3376700000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>367</v>
+      </c>
+      <c r="B29" s="11">
+        <v>15566.625155666254</v>
+      </c>
+      <c r="C29" s="11">
+        <v>62.743129627305819</v>
+      </c>
+      <c r="D29" s="11">
+        <v>0.18159999999999998</v>
+      </c>
+      <c r="E29" s="25">
+        <v>465</v>
+      </c>
+      <c r="F29" s="11">
+        <v>816.60900000000004</v>
+      </c>
+      <c r="G29" s="11">
+        <v>12539.9</v>
+      </c>
+      <c r="H29" s="11">
+        <v>2.4561299999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>375</v>
+      </c>
+      <c r="B30" s="11">
+        <v>15377.518068583731</v>
+      </c>
+      <c r="C30" s="11">
+        <v>81.786210844851553</v>
+      </c>
+      <c r="D30" s="11">
+        <v>0.23960000000000001</v>
+      </c>
+      <c r="E30" s="25">
+        <v>467.5</v>
+      </c>
+      <c r="F30" s="11">
+        <v>860.995</v>
+      </c>
+      <c r="G30" s="11">
+        <v>12427</v>
+      </c>
+      <c r="H30" s="11">
+        <v>2.5789499999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>383</v>
+      </c>
+      <c r="B31" s="11">
+        <v>15181.417944436009</v>
+      </c>
+      <c r="C31" s="11">
+        <v>105.31858873091102</v>
+      </c>
+      <c r="D31" s="11">
+        <v>0.31180000000000002</v>
+      </c>
+      <c r="E31" s="25">
+        <v>470</v>
+      </c>
+      <c r="F31" s="11">
+        <v>907.56600000000003</v>
+      </c>
+      <c r="G31" s="11">
+        <v>12311.5</v>
+      </c>
+      <c r="H31" s="11">
+        <v>2.70621</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>391</v>
+      </c>
+      <c r="B32" s="11">
+        <v>14979.029358897542</v>
+      </c>
+      <c r="C32" s="11">
+        <v>134.1381623071764</v>
+      </c>
+      <c r="D32" s="11">
+        <v>0.40050000000000002</v>
+      </c>
+      <c r="E32" s="25">
+        <v>472.5</v>
+      </c>
+      <c r="F32" s="11">
+        <v>956.44600000000003</v>
+      </c>
+      <c r="G32" s="11">
+        <v>12193.2</v>
+      </c>
+      <c r="H32" s="11">
+        <v>2.8380200000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>399</v>
+      </c>
+      <c r="B33" s="11">
+        <v>14768.867227883624</v>
+      </c>
+      <c r="C33" s="11">
+        <v>169.14749661705008</v>
+      </c>
+      <c r="D33" s="11">
+        <v>0.50829999999999997</v>
+      </c>
+      <c r="E33" s="25">
+        <v>475</v>
+      </c>
+      <c r="F33" s="11">
+        <v>1007.77</v>
+      </c>
+      <c r="G33" s="11">
+        <v>12071.8</v>
+      </c>
+      <c r="H33" s="11">
+        <v>2.9744600000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>407</v>
+      </c>
+      <c r="B34" s="11">
+        <v>14551.804423748545</v>
+      </c>
+      <c r="C34" s="11">
+        <v>211.41649048625791</v>
+      </c>
+      <c r="D34" s="11">
+        <v>0.63790000000000002</v>
+      </c>
+      <c r="E34" s="25">
+        <v>477.5</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1061.68</v>
+      </c>
+      <c r="G34" s="11">
+        <v>11947.4</v>
+      </c>
+      <c r="H34" s="11">
+        <v>3.1156199999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>415</v>
+      </c>
+      <c r="B35" s="11">
+        <v>14322.543683758238</v>
+      </c>
+      <c r="C35" s="11">
+        <v>262.19192448872576</v>
+      </c>
+      <c r="D35" s="11">
+        <v>0.7923</v>
+      </c>
+      <c r="E35" s="25">
+        <v>480</v>
+      </c>
+      <c r="F35" s="11">
+        <v>1118.3499999999999</v>
+      </c>
+      <c r="G35" s="11">
+        <v>11819.6</v>
+      </c>
+      <c r="H35" s="11">
+        <v>3.2616100000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>423</v>
+      </c>
+      <c r="B36" s="11">
+        <v>14082.52358822701</v>
+      </c>
+      <c r="C36" s="11">
+        <v>322.89312237649335</v>
+      </c>
+      <c r="D36" s="11">
+        <v>0.97439999999999993</v>
+      </c>
+      <c r="E36" s="25">
+        <v>482.5</v>
+      </c>
+      <c r="F36" s="11">
+        <v>1177.95</v>
+      </c>
+      <c r="G36" s="11">
+        <v>11688.4</v>
+      </c>
+      <c r="H36" s="11">
+        <v>3.4125100000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>431</v>
+      </c>
+      <c r="B37" s="1">
+        <v>13827.433628318584</v>
+      </c>
+      <c r="C37" s="11">
+        <v>395.56962025316454</v>
+      </c>
+      <c r="D37" s="11">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="E37" s="25">
+        <v>485</v>
+      </c>
+      <c r="F37" s="11">
+        <v>1240.68</v>
+      </c>
+      <c r="G37" s="11">
+        <v>11553.5</v>
+      </c>
+      <c r="H37" s="11">
+        <v>3.5684100000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>439</v>
+      </c>
+      <c r="B38" s="11">
+        <v>13553.808620222282</v>
+      </c>
+      <c r="C38" s="11">
+        <v>482.39266763145201</v>
+      </c>
+      <c r="D38" s="11">
+        <v>1.4350000000000001</v>
+      </c>
+      <c r="E38" s="25">
+        <v>487.5</v>
+      </c>
+      <c r="F38" s="11">
+        <v>1306.76</v>
+      </c>
+      <c r="G38" s="11">
+        <v>11414.7</v>
+      </c>
+      <c r="H38" s="11">
+        <v>3.7294200000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>447</v>
+      </c>
+      <c r="B39" s="11">
+        <v>13260.840737302746</v>
+      </c>
+      <c r="C39" s="11">
+        <v>586.85446009389671</v>
+      </c>
+      <c r="D39" s="11">
+        <v>1.72</v>
+      </c>
+      <c r="E39" s="25">
+        <v>490</v>
+      </c>
+      <c r="F39" s="11">
+        <v>1376.44</v>
+      </c>
+      <c r="G39" s="11">
+        <v>11271.7</v>
+      </c>
+      <c r="H39" s="11">
+        <v>3.89561</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>455</v>
+      </c>
+      <c r="B40" s="11">
+        <v>12941.633234114146</v>
+      </c>
+      <c r="C40" s="11">
+        <v>705.21861777150912</v>
+      </c>
+      <c r="D40" s="11">
+        <v>2.0470000000000002</v>
+      </c>
+      <c r="E40" s="25">
+        <v>492.5</v>
+      </c>
+      <c r="F40" s="11">
+        <v>1449.98</v>
+      </c>
+      <c r="G40" s="11">
+        <v>11124.2</v>
+      </c>
+      <c r="H40" s="11">
+        <v>4.0670999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>463</v>
+      </c>
+      <c r="B41" s="11">
+        <v>12591.286829513976</v>
+      </c>
+      <c r="C41" s="11">
+        <v>855.43199315654397</v>
+      </c>
+      <c r="D41" s="11">
+        <v>2.42</v>
+      </c>
+      <c r="E41" s="25">
+        <v>495</v>
+      </c>
+      <c r="F41" s="11">
+        <v>1527.72</v>
+      </c>
+      <c r="G41" s="11">
+        <v>10972</v>
+      </c>
+      <c r="H41" s="11">
+        <v>4.24397</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>471</v>
+      </c>
+      <c r="B42" s="11">
+        <v>12199.585214102721</v>
+      </c>
+      <c r="C42" s="11">
+        <v>1038.637307852098</v>
+      </c>
+      <c r="D42" s="11">
+        <v>2.8420000000000001</v>
+      </c>
+      <c r="E42" s="25">
+        <v>497.5</v>
+      </c>
+      <c r="F42" s="11">
+        <v>1610.01</v>
+      </c>
+      <c r="G42" s="11">
+        <v>10814.6</v>
+      </c>
+      <c r="H42" s="11">
+        <v>4.42631</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>479</v>
+      </c>
+      <c r="B43" s="11">
+        <v>11753.643629525153</v>
+      </c>
+      <c r="C43" s="11">
+        <v>1265.9830358273198</v>
+      </c>
+      <c r="D43" s="11">
+        <v>3.3170000000000002</v>
+      </c>
+      <c r="E43" s="25">
+        <v>500</v>
+      </c>
+      <c r="F43" s="11">
+        <v>1697.26</v>
+      </c>
+      <c r="G43" s="11">
+        <v>10651.7</v>
+      </c>
+      <c r="H43" s="11">
+        <v>4.6142300000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>487</v>
+      </c>
+      <c r="B44" s="11">
+        <v>11238.480557428635</v>
+      </c>
+      <c r="C44" s="11">
+        <v>1554.4846883258201</v>
+      </c>
+      <c r="D44" s="11">
+        <v>3.851</v>
+      </c>
+      <c r="E44" s="25">
+        <v>502.5</v>
+      </c>
+      <c r="F44" s="11">
+        <v>1789.96</v>
+      </c>
+      <c r="G44" s="11">
+        <v>10482.6</v>
+      </c>
+      <c r="H44" s="11">
+        <v>4.8078099999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>495</v>
+      </c>
+      <c r="B45" s="11">
+        <v>10624.734381640459</v>
+      </c>
+      <c r="C45" s="11">
+        <v>1936.1084220716361</v>
+      </c>
+      <c r="D45" s="11">
+        <v>4.4470000000000001</v>
+      </c>
+      <c r="E45" s="25">
+        <v>505</v>
+      </c>
+      <c r="F45" s="11">
+        <v>1888.65</v>
+      </c>
+      <c r="G45" s="11">
+        <v>10307</v>
+      </c>
+      <c r="H45" s="11">
+        <v>5.0071500000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>503</v>
+      </c>
+      <c r="B46" s="11">
+        <v>9871.6683119447189</v>
+      </c>
+      <c r="C46" s="11">
+        <v>2481.3895781637716</v>
+      </c>
+      <c r="D46" s="11">
+        <v>5.1109999999999998</v>
+      </c>
+      <c r="E46" s="25">
+        <v>507.5</v>
+      </c>
+      <c r="F46" s="11">
+        <v>1994.02</v>
+      </c>
+      <c r="G46" s="11">
+        <v>10124</v>
+      </c>
+      <c r="H46" s="11">
+        <v>5.2123400000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>511</v>
+      </c>
+      <c r="C47" s="11">
+        <v>3461.4053305642096</v>
+      </c>
+      <c r="D47" s="11">
+        <v>5.8490000000000002</v>
+      </c>
+      <c r="E47" s="25">
+        <v>510</v>
+      </c>
+      <c r="F47" s="11">
+        <v>2106.87</v>
+      </c>
+      <c r="G47" s="11">
+        <v>9932.94</v>
+      </c>
+      <c r="H47" s="11">
+        <v>5.4234799999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>513.91999999999996</v>
+      </c>
+      <c r="B48" s="11">
+        <v>5990.8938413611313</v>
+      </c>
+      <c r="C48" s="11">
+        <v>5990.8938413611313</v>
+      </c>
+      <c r="D48" s="11">
+        <v>6.1369999999999996</v>
+      </c>
+      <c r="E48" s="25">
+        <v>512.5</v>
+      </c>
+      <c r="F48" s="11">
+        <v>2228.16</v>
+      </c>
+      <c r="G48" s="11">
+        <v>9732.74</v>
+      </c>
+      <c r="H48" s="11">
+        <v>5.6406700000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E49" s="25">
+        <v>515</v>
+      </c>
+      <c r="F49" s="11">
+        <v>2359.11</v>
+      </c>
+      <c r="G49" s="11">
+        <v>9522.2000000000007</v>
+      </c>
+      <c r="H49" s="11">
+        <v>5.8639999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E50" s="25">
+        <v>517.5</v>
+      </c>
+      <c r="F50" s="11">
+        <v>2501.2800000000002</v>
+      </c>
+      <c r="G50" s="11">
+        <v>9299.7800000000007</v>
+      </c>
+      <c r="H50" s="11">
+        <v>6.0935600000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E51" s="25">
+        <v>520</v>
+      </c>
+      <c r="F51" s="11">
+        <v>2656.65</v>
+      </c>
+      <c r="G51" s="11">
+        <v>9063.4500000000007</v>
+      </c>
+      <c r="H51" s="11">
+        <v>6.3294499999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E52" s="25">
+        <v>522.5</v>
+      </c>
+      <c r="F52" s="11">
+        <v>2827.94</v>
+      </c>
+      <c r="G52" s="11">
+        <v>8810.5</v>
+      </c>
+      <c r="H52" s="11">
+        <v>6.5717699999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E53" s="25">
+        <v>525</v>
+      </c>
+      <c r="F53" s="11">
+        <v>3018.94</v>
+      </c>
+      <c r="G53" s="11">
+        <v>8537.1200000000008</v>
+      </c>
+      <c r="H53" s="11">
+        <v>6.8206100000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E54" s="25">
+        <v>527.5</v>
+      </c>
+      <c r="F54" s="11">
+        <v>3235.28</v>
+      </c>
+      <c r="G54" s="11">
+        <v>8237.66</v>
+      </c>
+      <c r="H54" s="11">
+        <v>7.0760699999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E55" s="25">
+        <v>530</v>
+      </c>
+      <c r="F55" s="11">
+        <v>3486.01</v>
+      </c>
+      <c r="G55" s="11">
+        <v>7903.06</v>
+      </c>
+      <c r="H55" s="11">
+        <v>7.3382500000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E56" s="25">
+        <v>532.5</v>
+      </c>
+      <c r="F56" s="11">
+        <v>3787.5</v>
+      </c>
+      <c r="G56" s="11">
+        <v>7516.96</v>
+      </c>
+      <c r="H56" s="11">
+        <v>7.6072300000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E57" s="25">
+        <v>535</v>
+      </c>
+      <c r="F57" s="11">
+        <v>4176.16</v>
+      </c>
+      <c r="G57" s="11">
+        <v>7042.9</v>
+      </c>
+      <c r="H57" s="11">
+        <v>7.8831300000000004</v>
+      </c>
+    </row>
+    <row r="58" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E58" s="25">
+        <v>537.5</v>
+      </c>
+      <c r="F58" s="11">
+        <v>4785.8599999999997</v>
+      </c>
+      <c r="G58" s="11">
+        <v>6347.02</v>
+      </c>
+      <c r="H58" s="11">
+        <v>8.1660400000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E59" s="25">
+        <v>538.84100000000001</v>
+      </c>
+      <c r="F59" s="11">
+        <v>5560.5</v>
+      </c>
+      <c r="G59" s="11">
+        <v>5560.5</v>
+      </c>
+    </row>
+    <row r="74" spans="21:23" x14ac:dyDescent="0.25">
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="Y1:AB1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="U1:X1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -42130,48 +48707,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37" t="s">
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="41"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -44610,46 +51187,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37" t="s">
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -47791,46 +54368,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -52956,46 +59533,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37" t="s">
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37" t="s">
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
@@ -53410,8 +59987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF120"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53425,50 +60002,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="42" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44" t="s">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="46" t="s">
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="48" t="s">
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="50" t="s">
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -56457,68 +63034,68 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52" t="s">
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52" t="s">
+      <c r="F2" s="53"/>
+      <c r="G2" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52" t="s">
+      <c r="J2" s="53"/>
+      <c r="K2" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52" t="s">
+      <c r="L2" s="53"/>
+      <c r="M2" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52" t="s">
+      <c r="N2" s="53"/>
+      <c r="O2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52" t="s">
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="52"/>
+      <c r="R2" s="53"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -60352,50 +66929,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="42" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44">
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45">
         <v>7.4000000000000003E-10</v>
       </c>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="46">
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47">
         <v>7.2E-10</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="48">
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="49">
         <v>6.9E-10</v>
       </c>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="50">
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="51">
         <v>6.8000000000000003E-10</v>
       </c>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="37"/>
-      <c r="AD1" s="37"/>
-      <c r="AE1" s="37"/>
-      <c r="AF1" s="37"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">

--- a/Planilhas de análise/Controle.xlsx
+++ b/Planilhas de análise/Controle.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="881" firstSheet="1" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="881" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Controle" sheetId="1" r:id="rId1"/>
@@ -40263,27 +40263,27 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="propano_exp" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="propano_exp_1" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="propano_exp" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp_1" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octano_exp" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near_1" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="octane_exp3_near" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40555,8 +40555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47227,8 +47227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -59521,8 +59521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
